--- a/screenshots/OKEx Funding Account History_v5.xlsx
+++ b/screenshots/OKEx Funding Account History_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbrick/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbrick/Workspace/Chain-Explorer-Crawling/screenshots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7803B152-E9DE-3140-9ADD-BECD8D73F4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FDDB30-F881-3240-8824-C3FD31A58BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17380" yWindow="-23500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OKEx Funding 입금 History" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,6 +2097,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,8 +2460,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5475,7 +5478,7 @@
       <c r="I106" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="17" t="s">
         <v>410</v>
       </c>
       <c r="K106" s="4" t="s">
@@ -6243,8 +6246,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
